--- a/mercados/expectativas_eco_12m.xlsx
+++ b/mercados/expectativas_eco_12m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2254,6 +2254,17 @@
         <v>44713</v>
       </c>
     </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>42.99</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_12m.xlsx
+++ b/mercados/expectativas_eco_12m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2265,6 +2265,17 @@
         <v>44743</v>
       </c>
     </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>42.64</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_12m.xlsx
+++ b/mercados/expectativas_eco_12m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2276,6 +2276,17 @@
         <v>44774</v>
       </c>
     </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>42.86</v>
+      </c>
+      <c r="C173" s="2">
+        <v>44805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_12m.xlsx
+++ b/mercados/expectativas_eco_12m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2287,6 +2287,17 @@
         <v>44805</v>
       </c>
     </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>43.49</v>
+      </c>
+      <c r="C174" s="2">
+        <v>44835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_12m.xlsx
+++ b/mercados/expectativas_eco_12m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2298,6 +2298,17 @@
         <v>44835</v>
       </c>
     </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>43.32</v>
+      </c>
+      <c r="C175" s="2">
+        <v>44866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_12m.xlsx
+++ b/mercados/expectativas_eco_12m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1544,7 +1544,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>65.93000000000001</v>
+        <v>65.98</v>
       </c>
       <c r="C106" s="2">
         <v>42767</v>
@@ -2307,6 +2307,83 @@
       </c>
       <c r="C175" s="2">
         <v>44866</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>53.98</v>
+      </c>
+      <c r="C176" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>46.63</v>
+      </c>
+      <c r="C177" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>51.89</v>
+      </c>
+      <c r="C178" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>51.89</v>
+      </c>
+      <c r="C179" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>53.68</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>56.3</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>51.18</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45078</v>
       </c>
     </row>
   </sheetData>
